--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5481927710843374</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9891304347826086</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5449101796407185</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7054263565891473</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4431137724550898</v>
+        <v>0.4760479041916167</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08597709000579885</v>
+        <v>0.08597170896298947</v>
       </c>
       <c r="J2" t="n">
-        <v>1123.039394939097</v>
+        <v>1098.703271796888</v>
       </c>
       <c r="K2" t="n">
-        <v>1761432.80343691</v>
+        <v>1542704.025262024</v>
       </c>
       <c r="L2" t="n">
-        <v>1327.189814396159</v>
+        <v>1242.056369599232</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6733649588073389</v>
+        <v>0.7139253953620414</v>
       </c>
     </row>
   </sheetData>
